--- a/ML/fEX_scorebook.xlsx
+++ b/ML/fEX_scorebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672BDD9-AD36-43EE-B9E0-24CA24CC2473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D250868-1BD8-4AB2-B7E5-C94FE9CF1291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{9AF6A8F2-4FBF-401F-9BE3-1FBCD732B3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
   <si>
     <t>T1 Ratio</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>0.9991228070175439</t>
+  </si>
+  <si>
+    <t>0.671313</t>
+  </si>
+  <si>
+    <t>0.652727</t>
+  </si>
+  <si>
+    <t>0.6527272727272727</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
   </si>
 </sst>
 </file>
@@ -520,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604434FA-C7CF-4F86-834A-76C76B5EC888}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +546,7 @@
     <col min="11" max="12" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -571,8 +583,11 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -609,8 +624,11 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -647,8 +665,11 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -685,8 +706,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -723,8 +747,11 @@
       <c r="L5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -761,8 +788,11 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -799,8 +829,11 @@
       <c r="L7" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -837,8 +870,11 @@
       <c r="L8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -875,8 +911,11 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -913,8 +952,11 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -951,8 +993,11 @@
       <c r="L11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -989,8 +1034,11 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1027,8 +1075,11 @@
       <c r="L13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1065,8 +1116,11 @@
       <c r="L14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1103,8 +1157,11 @@
       <c r="L15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1141,8 +1198,11 @@
       <c r="L16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1179,8 +1239,11 @@
       <c r="L17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1217,8 +1280,11 @@
       <c r="L18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1254,6 +1320,419 @@
       </c>
       <c r="L19" t="s">
         <v>39</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1076</v>
+      </c>
+      <c r="I20">
+        <v>573</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1076</v>
+      </c>
+      <c r="I21">
+        <v>573</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1076</v>
+      </c>
+      <c r="I22">
+        <v>573</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1076</v>
+      </c>
+      <c r="I23">
+        <v>573</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1076</v>
+      </c>
+      <c r="I24">
+        <v>573</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="B25">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1076</v>
+      </c>
+      <c r="I25">
+        <v>573</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>564</v>
+      </c>
+      <c r="H26">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>523</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>560</v>
+      </c>
+      <c r="I27">
+        <v>579</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>560</v>
+      </c>
+      <c r="I28">
+        <v>579</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>560</v>
+      </c>
+      <c r="I29">
+        <v>579</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ML/fEX_scorebook.xlsx
+++ b/ML/fEX_scorebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D250868-1BD8-4AB2-B7E5-C94FE9CF1291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67CF06-18CF-4234-BE2C-2A78A4E423C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{9AF6A8F2-4FBF-401F-9BE3-1FBCD732B3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>T1 Ratio</t>
   </si>
@@ -170,16 +170,37 @@
     <t>0.9991228070175439</t>
   </si>
   <si>
-    <t>0.671313</t>
-  </si>
-  <si>
-    <t>0.652727</t>
-  </si>
-  <si>
     <t>0.6527272727272727</t>
   </si>
   <si>
     <t>Shuffle</t>
+  </si>
+  <si>
+    <t>0.579403</t>
+  </si>
+  <si>
+    <t>0.622642</t>
+  </si>
+  <si>
+    <t>0.6226415094339622</t>
+  </si>
+  <si>
+    <t>0.504667</t>
+  </si>
+  <si>
+    <t>0.486000</t>
+  </si>
+  <si>
+    <t>0.4866415094339622</t>
+  </si>
+  <si>
+    <t>0.506346</t>
+  </si>
+  <si>
+    <t>0.478000</t>
+  </si>
+  <si>
+    <t>0.4787272727272727</t>
   </si>
 </sst>
 </file>
@@ -535,7 +556,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1330,7 +1351,7 @@
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="B20">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1339,28 +1360,28 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="H20">
-        <v>1076</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1371,7 +1392,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="B21">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1380,28 +1401,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1076</v>
+        <v>242</v>
       </c>
       <c r="I21">
-        <v>573</v>
+        <v>257</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1412,7 +1433,7 @@
         <v>8.5416666666666655E-2</v>
       </c>
       <c r="B22">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1421,28 +1442,28 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1076</v>
+        <v>242</v>
       </c>
       <c r="I22">
-        <v>573</v>
+        <v>257</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1453,7 +1474,7 @@
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="B23">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1462,28 +1483,28 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1076</v>
+        <v>242</v>
       </c>
       <c r="I23">
-        <v>573</v>
+        <v>257</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1494,7 +1515,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="B24">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1503,28 +1524,28 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1076</v>
+        <v>242</v>
       </c>
       <c r="I24">
-        <v>573</v>
+        <v>257</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1535,7 +1556,7 @@
         <v>8.5416666666666655E-2</v>
       </c>
       <c r="B25">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1544,28 +1565,28 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>260</v>
+      </c>
+      <c r="I25">
+        <v>239</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>45</v>
       </c>
-      <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1076</v>
-      </c>
-      <c r="I25">
-        <v>573</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>47</v>
-      </c>
       <c r="L25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1603,10 +1624,10 @@
         <v>523</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M26">
         <v>1</v>

--- a/ML/fEX_scorebook.xlsx
+++ b/ML/fEX_scorebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67CF06-18CF-4234-BE2C-2A78A4E423C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1DCB1-8B25-4614-9DD4-6705A4D0B088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{9AF6A8F2-4FBF-401F-9BE3-1FBCD732B3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>T1 Ratio</t>
   </si>
@@ -201,6 +201,48 @@
   </si>
   <si>
     <t>0.4787272727272727</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>0.637333</t>
+  </si>
+  <si>
+    <t>0.618000</t>
+  </si>
+  <si>
+    <t>0.6186667</t>
+  </si>
+  <si>
+    <t>0.516333333</t>
+  </si>
+  <si>
+    <t>0.51633333333333</t>
+  </si>
+  <si>
+    <t>0.682667</t>
+  </si>
+  <si>
+    <t>0.600000</t>
+  </si>
+  <si>
+    <t>0.612667</t>
+  </si>
+  <si>
+    <t>0.574000</t>
+  </si>
+  <si>
+    <t>0.5741111</t>
+  </si>
+  <si>
+    <t>0.622667</t>
+  </si>
+  <si>
+    <t>0.672000</t>
+  </si>
+  <si>
+    <t>0.634000</t>
   </si>
 </sst>
 </file>
@@ -553,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604434FA-C7CF-4F86-834A-76C76B5EC888}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +609,7 @@
     <col min="11" max="12" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -587,16 +629,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
       <c r="K1" t="s">
         <v>13</v>
@@ -607,8 +649,11 @@
       <c r="M1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -628,16 +673,16 @@
         <v>12</v>
       </c>
       <c r="G2">
+        <v>595</v>
+      </c>
+      <c r="H2">
         <v>177</v>
       </c>
-      <c r="H2">
-        <v>595</v>
-      </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -648,8 +693,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -669,16 +717,16 @@
         <v>12</v>
       </c>
       <c r="G3">
+        <v>595</v>
+      </c>
+      <c r="H3">
         <v>177</v>
       </c>
-      <c r="H3">
-        <v>595</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -689,8 +737,11 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -710,11 +761,11 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <v>596</v>
+      </c>
+      <c r="H4">
         <v>177</v>
       </c>
-      <c r="H4">
-        <v>596</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -730,8 +781,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -751,16 +805,16 @@
         <v>12</v>
       </c>
       <c r="G5">
+        <v>595</v>
+      </c>
+      <c r="H5">
         <v>177</v>
       </c>
-      <c r="H5">
-        <v>595</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -771,8 +825,11 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -792,16 +849,16 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="H6">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>177</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -812,8 +869,11 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -833,16 +893,16 @@
         <v>24</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="H7">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>177</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -853,8 +913,11 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -874,16 +937,16 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="H8">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>557</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>29</v>
@@ -894,8 +957,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -915,16 +981,16 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="H9">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>577</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
@@ -935,8 +1001,11 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -956,16 +1025,16 @@
         <v>28</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="H10">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>577</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>29</v>
@@ -976,8 +1045,11 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -997,16 +1069,16 @@
         <v>28</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="H11">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>577</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
@@ -1017,8 +1089,11 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1038,16 +1113,16 @@
         <v>28</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="H12">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>577</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>
@@ -1058,8 +1133,11 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1079,16 +1157,16 @@
         <v>31</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="H13">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>557</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>32</v>
@@ -1099,8 +1177,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1120,16 +1201,16 @@
         <v>35</v>
       </c>
       <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14">
         <v>564</v>
       </c>
-      <c r="H14">
-        <v>37</v>
-      </c>
       <c r="I14">
+        <v>523</v>
+      </c>
+      <c r="J14">
         <v>15</v>
-      </c>
-      <c r="J14">
-        <v>523</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -1140,8 +1221,11 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1161,16 +1245,16 @@
         <v>38</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H15">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>579</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -1181,8 +1265,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1202,16 +1289,16 @@
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H16">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>579</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -1222,8 +1309,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1243,16 +1333,16 @@
         <v>38</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H17">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>579</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -1263,8 +1353,11 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1284,16 +1377,16 @@
         <v>42</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H18">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>579</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>43</v>
@@ -1304,8 +1397,11 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1325,16 +1421,16 @@
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H19">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>579</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
@@ -1345,13 +1441,16 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1366,16 +1465,16 @@
         <v>48</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>263</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J20">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>49</v>
@@ -1386,8 +1485,11 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8.4722222222222213E-2</v>
       </c>
@@ -1407,16 +1509,16 @@
         <v>51</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H21">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>257</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
@@ -1427,8 +1529,11 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8.5416666666666655E-2</v>
       </c>
@@ -1448,16 +1553,16 @@
         <v>51</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H22">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>257</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>52</v>
@@ -1468,8 +1573,11 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8.4027777777777771E-2</v>
       </c>
@@ -1489,16 +1597,16 @@
         <v>51</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H23">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>257</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>52</v>
@@ -1509,8 +1617,11 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>8.4722222222222213E-2</v>
       </c>
@@ -1530,16 +1641,16 @@
         <v>51</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H24">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>257</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>52</v>
@@ -1550,8 +1661,11 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8.5416666666666655E-2</v>
       </c>
@@ -1571,16 +1685,16 @@
         <v>54</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H25">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>239</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
@@ -1591,8 +1705,11 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1612,16 +1729,16 @@
         <v>35</v>
       </c>
       <c r="G26">
+        <v>37</v>
+      </c>
+      <c r="H26">
         <v>564</v>
       </c>
-      <c r="H26">
-        <v>37</v>
-      </c>
       <c r="I26">
+        <v>523</v>
+      </c>
+      <c r="J26">
         <v>15</v>
-      </c>
-      <c r="J26">
-        <v>523</v>
       </c>
       <c r="K26" t="s">
         <v>55</v>
@@ -1632,8 +1749,11 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1653,16 +1773,16 @@
         <v>38</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H27">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>579</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>39</v>
@@ -1673,8 +1793,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1694,16 +1817,16 @@
         <v>38</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H28">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>579</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>39</v>
@@ -1714,8 +1837,11 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1735,16 +1861,16 @@
         <v>38</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="H29">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>579</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
@@ -1754,6 +1880,273 @@
       </c>
       <c r="M29">
         <v>0</v>
+      </c>
+      <c r="N29">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30">
+        <v>158</v>
+      </c>
+      <c r="H30">
+        <v>143</v>
+      </c>
+      <c r="I30">
+        <v>85</v>
+      </c>
+      <c r="J30">
+        <v>114</v>
+      </c>
+      <c r="K30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31">
+        <v>123</v>
+      </c>
+      <c r="H31">
+        <v>135</v>
+      </c>
+      <c r="I31">
+        <v>108</v>
+      </c>
+      <c r="J31">
+        <v>134</v>
+      </c>
+      <c r="K31" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32">
+        <v>171</v>
+      </c>
+      <c r="H32">
+        <v>129</v>
+      </c>
+      <c r="I32">
+        <v>72</v>
+      </c>
+      <c r="J32">
+        <v>128</v>
+      </c>
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>158</v>
+      </c>
+      <c r="H33">
+        <v>143</v>
+      </c>
+      <c r="I33">
+        <v>85</v>
+      </c>
+      <c r="J33">
+        <v>114</v>
+      </c>
+      <c r="K33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34">
+        <v>185</v>
+      </c>
+      <c r="H34">
+        <v>126</v>
+      </c>
+      <c r="I34">
+        <v>58</v>
+      </c>
+      <c r="J34">
+        <v>131</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35">
+        <v>167</v>
+      </c>
+      <c r="H35">
+        <v>150</v>
+      </c>
+      <c r="I35">
+        <v>76</v>
+      </c>
+      <c r="J35">
+        <v>107</v>
+      </c>
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>12.3</v>
       </c>
     </row>
   </sheetData>

--- a/ML/fEX_scorebook.xlsx
+++ b/ML/fEX_scorebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1DCB1-8B25-4614-9DD4-6705A4D0B088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678219C-A387-42B5-933A-65A86137E13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{9AF6A8F2-4FBF-401F-9BE3-1FBCD732B3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="175">
   <si>
     <t>T1 Ratio</t>
   </si>
@@ -243,6 +243,321 @@
   </si>
   <si>
     <t>0.634000</t>
+  </si>
+  <si>
+    <t>0.552333</t>
+  </si>
+  <si>
+    <t>0.576000</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.592333</t>
+  </si>
+  <si>
+    <t>0.605000</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.60000</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.639379</t>
+  </si>
+  <si>
+    <t>0.657862</t>
+  </si>
+  <si>
+    <t>0.6578616352201258</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>Input Columns (0…X)</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,6</t>
+  </si>
+  <si>
+    <t>3,5,6</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>0.576333</t>
+  </si>
+  <si>
+    <t>0.560667</t>
+  </si>
+  <si>
+    <t>0.580000</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.586667</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>0.578000</t>
+  </si>
+  <si>
+    <t>0.497333</t>
+  </si>
+  <si>
+    <t>0.471000</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.573667</t>
+  </si>
+  <si>
+    <t>0.594000</t>
+  </si>
+  <si>
+    <t>0.524667</t>
+  </si>
+  <si>
+    <t>0.550000</t>
+  </si>
+  <si>
+    <t>0.560000</t>
+  </si>
+  <si>
+    <t>0.581000</t>
+  </si>
+  <si>
+    <t>0.525667</t>
+  </si>
+  <si>
+    <t>0.563000</t>
+  </si>
+  <si>
+    <t>0.559333</t>
+  </si>
+  <si>
+    <t>0.587000</t>
+  </si>
+  <si>
+    <t>0.601000</t>
+  </si>
+  <si>
+    <t>0.620000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.636667</t>
+  </si>
+  <si>
+    <t>0.608000</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>0.510000</t>
+  </si>
+  <si>
+    <t>0.499000</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>0.635667</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>0.551333</t>
+  </si>
+  <si>
+    <t>0.557000</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>0.476667</t>
+  </si>
+  <si>
+    <t>0.504000</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>0.468333</t>
+  </si>
+  <si>
+    <t>0.476000</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.596667</t>
+  </si>
+  <si>
+    <t>0.622000</t>
+  </si>
+  <si>
+    <t>0.602667</t>
+  </si>
+  <si>
+    <t>0.602000</t>
+  </si>
+  <si>
+    <t>0.568667</t>
+  </si>
+  <si>
+    <t>0.529667</t>
+  </si>
+  <si>
+    <t>0.549000</t>
+  </si>
+  <si>
+    <t>0.573333</t>
+  </si>
+  <si>
+    <t>0.553000</t>
+  </si>
+  <si>
+    <t>0.601667</t>
+  </si>
+  <si>
+    <t>0.619000</t>
+  </si>
+  <si>
+    <t>0.542000</t>
+  </si>
+  <si>
+    <t>0.556000</t>
+  </si>
+  <si>
+    <t>0.546667</t>
+  </si>
+  <si>
+    <t>0.544000</t>
+  </si>
+  <si>
+    <t>0.569000</t>
+  </si>
+  <si>
+    <t>0.523333</t>
+  </si>
+  <si>
+    <t>0.543000</t>
+  </si>
+  <si>
+    <t>0.584000</t>
+  </si>
+  <si>
+    <t>0.904267</t>
+  </si>
+  <si>
+    <t>0.885600</t>
+  </si>
+  <si>
+    <t>0.904800</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -258,12 +573,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,9 +617,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604434FA-C7CF-4F86-834A-76C76B5EC888}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,9 +957,10 @@
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="11" max="12" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -652,8 +1003,11 @@
       <c r="N1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -696,8 +1050,11 @@
       <c r="N2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -740,8 +1097,11 @@
       <c r="N3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -784,8 +1144,11 @@
       <c r="N4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -828,8 +1191,11 @@
       <c r="N5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -872,8 +1238,11 @@
       <c r="N6">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -916,8 +1285,11 @@
       <c r="N7">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -960,8 +1332,11 @@
       <c r="N8">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1004,8 +1379,11 @@
       <c r="N9">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1048,8 +1426,11 @@
       <c r="N10">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1092,8 +1473,11 @@
       <c r="N11">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1136,8 +1520,11 @@
       <c r="N12">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1180,8 +1567,11 @@
       <c r="N13">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1224,8 +1614,11 @@
       <c r="N14">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1268,8 +1661,11 @@
       <c r="N15">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1312,8 +1708,11 @@
       <c r="N16">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1356,8 +1755,11 @@
       <c r="N17">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1400,8 +1802,11 @@
       <c r="N18">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1444,8 +1849,11 @@
       <c r="N19">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8.4027777777777771E-2</v>
       </c>
@@ -1488,8 +1896,11 @@
       <c r="N20">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8.4722222222222213E-2</v>
       </c>
@@ -1532,8 +1943,11 @@
       <c r="N21">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8.5416666666666655E-2</v>
       </c>
@@ -1576,8 +1990,11 @@
       <c r="N22">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8.4027777777777771E-2</v>
       </c>
@@ -1620,8 +2037,11 @@
       <c r="N23">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>8.4722222222222213E-2</v>
       </c>
@@ -1664,8 +2084,11 @@
       <c r="N24">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8.5416666666666655E-2</v>
       </c>
@@ -1708,8 +2131,11 @@
       <c r="N25">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1752,8 +2178,11 @@
       <c r="N26">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1796,8 +2225,11 @@
       <c r="N27">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1840,8 +2272,11 @@
       <c r="N28">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1884,8 +2319,11 @@
       <c r="N29">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1928,8 +2366,11 @@
       <c r="N30">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1972,8 +2413,11 @@
       <c r="N31">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2016,8 +2460,11 @@
       <c r="N32">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2060,8 +2507,11 @@
       <c r="N33">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2104,50 +2554,3072 @@
       <c r="N34">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="12">
         <v>0.5</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <v>167</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="12">
         <v>150</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="12">
         <v>76</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="12">
         <v>107</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
+      <c r="M35" s="12">
+        <v>1</v>
+      </c>
+      <c r="N35" s="12">
         <v>12.3</v>
       </c>
+      <c r="O35" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36">
+        <v>126</v>
+      </c>
+      <c r="H36">
+        <v>450</v>
+      </c>
+      <c r="I36">
+        <v>74</v>
+      </c>
+      <c r="J36">
+        <v>350</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>6.3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37">
+        <v>228</v>
+      </c>
+      <c r="H37">
+        <v>377</v>
+      </c>
+      <c r="I37">
+        <v>147</v>
+      </c>
+      <c r="J37">
+        <v>248</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>6.3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <v>121</v>
+      </c>
+      <c r="H38">
+        <v>179</v>
+      </c>
+      <c r="I38">
+        <v>78</v>
+      </c>
+      <c r="J38">
+        <v>122</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>6.3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>471</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <v>247</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>6.3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40">
+        <v>245</v>
+      </c>
+      <c r="H40">
+        <v>329</v>
+      </c>
+      <c r="I40">
+        <v>195</v>
+      </c>
+      <c r="J40">
+        <v>231</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41">
+        <v>195</v>
+      </c>
+      <c r="H41">
+        <v>385</v>
+      </c>
+      <c r="I41">
+        <v>139</v>
+      </c>
+      <c r="J41">
+        <v>281</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42">
+        <v>302</v>
+      </c>
+      <c r="H42">
+        <v>298</v>
+      </c>
+      <c r="I42">
+        <v>226</v>
+      </c>
+      <c r="J42">
+        <v>174</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43">
+        <v>215</v>
+      </c>
+      <c r="H43">
+        <v>385</v>
+      </c>
+      <c r="I43">
+        <v>139</v>
+      </c>
+      <c r="J43">
+        <v>261</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="4">
+        <v>153</v>
+      </c>
+      <c r="H44" s="4">
+        <v>318</v>
+      </c>
+      <c r="I44" s="4">
+        <v>371</v>
+      </c>
+      <c r="J44" s="4">
+        <v>158</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45">
+        <v>309</v>
+      </c>
+      <c r="H45">
+        <v>285</v>
+      </c>
+      <c r="I45">
+        <v>239</v>
+      </c>
+      <c r="J45">
+        <v>167</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46">
+        <v>151</v>
+      </c>
+      <c r="H46">
+        <v>399</v>
+      </c>
+      <c r="I46">
+        <v>125</v>
+      </c>
+      <c r="J46">
+        <v>325</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>6.3</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47">
+        <v>210</v>
+      </c>
+      <c r="H47">
+        <v>371</v>
+      </c>
+      <c r="I47">
+        <v>153</v>
+      </c>
+      <c r="J47">
+        <v>266</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>6.3</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="7">
+        <v>318</v>
+      </c>
+      <c r="H48" s="7">
+        <v>153</v>
+      </c>
+      <c r="I48" s="7">
+        <v>371</v>
+      </c>
+      <c r="J48" s="7">
+        <v>158</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="O48" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49">
+        <v>75</v>
+      </c>
+      <c r="H49">
+        <v>488</v>
+      </c>
+      <c r="I49">
+        <v>36</v>
+      </c>
+      <c r="J49">
+        <v>401</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>6.3</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50">
+        <v>183</v>
+      </c>
+      <c r="H50">
+        <v>404</v>
+      </c>
+      <c r="I50">
+        <v>120</v>
+      </c>
+      <c r="J50">
+        <v>293</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>6.3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51">
+        <v>292</v>
+      </c>
+      <c r="H51">
+        <v>328</v>
+      </c>
+      <c r="I51">
+        <v>196</v>
+      </c>
+      <c r="J51">
+        <v>184</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>6.3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52">
+        <v>285</v>
+      </c>
+      <c r="H52">
+        <v>337</v>
+      </c>
+      <c r="I52">
+        <v>187</v>
+      </c>
+      <c r="J52">
+        <v>191</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>6.3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53">
+        <v>296</v>
+      </c>
+      <c r="H53">
+        <v>306</v>
+      </c>
+      <c r="I53">
+        <v>218</v>
+      </c>
+      <c r="J53">
+        <v>180</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>6.3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54">
+        <v>211</v>
+      </c>
+      <c r="H54">
+        <v>376</v>
+      </c>
+      <c r="I54">
+        <v>148</v>
+      </c>
+      <c r="J54">
+        <v>265</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55">
+        <v>184</v>
+      </c>
+      <c r="H55">
+        <v>365</v>
+      </c>
+      <c r="I55">
+        <v>159</v>
+      </c>
+      <c r="J55">
+        <v>292</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56">
+        <v>305</v>
+      </c>
+      <c r="H56">
+        <v>258</v>
+      </c>
+      <c r="I56">
+        <v>266</v>
+      </c>
+      <c r="J56">
+        <v>171</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57">
+        <v>226</v>
+      </c>
+      <c r="H57">
+        <v>327</v>
+      </c>
+      <c r="I57">
+        <v>197</v>
+      </c>
+      <c r="J57">
+        <v>250</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="4">
+        <v>289</v>
+      </c>
+      <c r="H58" s="4">
+        <v>330</v>
+      </c>
+      <c r="I58" s="4">
+        <v>194</v>
+      </c>
+      <c r="J58" s="4">
+        <v>187</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M58" s="5">
+        <v>1</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59">
+        <v>212</v>
+      </c>
+      <c r="H59">
+        <v>344</v>
+      </c>
+      <c r="I59">
+        <v>180</v>
+      </c>
+      <c r="J59">
+        <v>264</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60">
+        <v>310</v>
+      </c>
+      <c r="H60">
+        <v>234</v>
+      </c>
+      <c r="I60">
+        <v>290</v>
+      </c>
+      <c r="J60">
+        <v>166</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>6.3</v>
+      </c>
+      <c r="O60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61">
+        <v>294</v>
+      </c>
+      <c r="H61">
+        <v>280</v>
+      </c>
+      <c r="I61">
+        <v>244</v>
+      </c>
+      <c r="J61">
+        <v>182</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>6.3</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" s="7">
+        <v>298</v>
+      </c>
+      <c r="H62" s="7">
+        <v>212</v>
+      </c>
+      <c r="I62" s="7">
+        <v>312</v>
+      </c>
+      <c r="J62" s="7">
+        <v>178</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1</v>
+      </c>
+      <c r="N62" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="O62" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63">
+        <v>174</v>
+      </c>
+      <c r="H63">
+        <v>410</v>
+      </c>
+      <c r="I63">
+        <v>114</v>
+      </c>
+      <c r="J63">
+        <v>302</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>6.3</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64">
+        <v>1107</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>143</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>6.3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65">
+        <v>1107</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>143</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>6.3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66">
+        <v>1107</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>143</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>6.3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67">
+        <v>1107</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>143</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>6.3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68">
+        <v>1107</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>143</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69">
+        <v>1107</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>143</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70">
+        <v>1107</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>143</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71">
+        <v>1107</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>143</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>0</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1107</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
+        <v>143</v>
+      </c>
+      <c r="J72" s="10">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M72" s="11">
+        <v>1</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73">
+        <v>1107</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>143</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74">
+        <v>1107</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>143</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>6.3</v>
+      </c>
+      <c r="O74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>173</v>
+      </c>
+      <c r="F75" t="s">
+        <v>172</v>
+      </c>
+      <c r="G75">
+        <v>1107</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>143</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>6.3</v>
+      </c>
+      <c r="O75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="10">
+        <v>1107</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
+        <v>143</v>
+      </c>
+      <c r="J76" s="10">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M76" s="10">
+        <v>1</v>
+      </c>
+      <c r="N76" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="O76" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77">
+        <v>1107</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>143</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>6.3</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78">
+        <v>1107</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>143</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>6.3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79">
+        <v>1107</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>143</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>6.3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80">
+        <v>1107</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>143</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>6.3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>173</v>
+      </c>
+      <c r="F81" t="s">
+        <v>172</v>
+      </c>
+      <c r="G81">
+        <v>1107</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>143</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>6.3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82" t="s">
+        <v>172</v>
+      </c>
+      <c r="G82">
+        <v>1107</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>143</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O82" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83">
+        <v>1107</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>143</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" t="s">
+        <v>172</v>
+      </c>
+      <c r="G84">
+        <v>1107</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>143</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" t="s">
+        <v>172</v>
+      </c>
+      <c r="G85">
+        <v>1107</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>143</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M85" s="2">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="10">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G86" s="10">
+        <v>1107</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10">
+        <v>143</v>
+      </c>
+      <c r="J86" s="10">
+        <v>0</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M86" s="11">
+        <v>1</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87">
+        <v>1107</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>143</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M87" s="2">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" t="s">
+        <v>172</v>
+      </c>
+      <c r="G88">
+        <v>1107</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>143</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>6.3</v>
+      </c>
+      <c r="O88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G89">
+        <v>1107</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>143</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>6.3</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.1</v>
+      </c>
+      <c r="C90" s="10">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" s="10">
+        <v>1107</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10">
+        <v>143</v>
+      </c>
+      <c r="J90" s="10">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M90" s="10">
+        <v>1</v>
+      </c>
+      <c r="N90" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="O90" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>173</v>
+      </c>
+      <c r="F91" t="s">
+        <v>172</v>
+      </c>
+      <c r="G91">
+        <v>1107</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>143</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>6.3</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M92" s="2">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1</v>
+      </c>
+      <c r="N93" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M94" s="2">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M95" s="2">
+        <v>1</v>
+      </c>
+      <c r="N95" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M96" s="2">
+        <v>1</v>
+      </c>
+      <c r="N96" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M97" s="2">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ML/fEX_scorebook.xlsx
+++ b/ML/fEX_scorebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678219C-A387-42B5-933A-65A86137E13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AE1987-6AAA-4BC7-BB99-4E130A3595F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{9AF6A8F2-4FBF-401F-9BE3-1FBCD732B3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="191">
   <si>
     <t>T1 Ratio</t>
   </si>
@@ -558,6 +558,54 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.58233</t>
+  </si>
+  <si>
+    <t>0.606000</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>0.539667</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -573,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +652,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -631,6 +691,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604434FA-C7CF-4F86-834A-76C76B5EC888}">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2606,190 +2670,190 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="13">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="14">
         <v>0.5</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="14">
+        <v>0</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="14">
         <v>126</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="14">
         <v>450</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="14">
         <v>74</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="14">
         <v>350</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
+      <c r="M36" s="14">
+        <v>1</v>
+      </c>
+      <c r="N36" s="14">
         <v>6.3</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="9">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <v>0.5</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="10">
         <v>228</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="10">
         <v>377</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="10">
         <v>147</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="10">
         <v>248</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
+      <c r="M37" s="10">
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
         <v>6.3</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="9">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10">
         <v>0.5</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="10">
         <v>121</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="10">
         <v>179</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="10">
         <v>78</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="10">
         <v>122</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
+      <c r="M38" s="10">
+        <v>1</v>
+      </c>
+      <c r="N38" s="10">
         <v>6.3</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="9">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10">
         <v>0.5</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="10">
         <v>52</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="10">
         <v>471</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="10">
         <v>25</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="10">
         <v>247</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
         <v>6.3</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3264,190 +3328,190 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="13">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="14">
         <v>0.5</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="14">
         <v>183</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="14">
         <v>404</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="14">
         <v>120</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="14">
         <v>293</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
+      <c r="M50" s="14">
+        <v>1</v>
+      </c>
+      <c r="N50" s="14">
         <v>6.3</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="9">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <v>0.5</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="10">
         <v>292</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="10">
         <v>328</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="10">
         <v>196</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="10">
         <v>184</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
+      <c r="M51" s="10">
+        <v>1</v>
+      </c>
+      <c r="N51" s="10">
         <v>6.3</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="9">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="10">
         <v>0.5</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="10">
         <v>285</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="10">
         <v>337</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="10">
         <v>187</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="10">
         <v>191</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
+      <c r="M52" s="10">
+        <v>1</v>
+      </c>
+      <c r="N52" s="10">
         <v>6.3</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="9">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="10">
         <v>0.5</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="10">
         <v>296</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="10">
         <v>306</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="10">
         <v>218</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="10">
         <v>180</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
+      <c r="M53" s="10">
+        <v>1</v>
+      </c>
+      <c r="N53" s="10">
         <v>6.3</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5238,196 +5302,196 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M92" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N92" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O92" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N93" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O93" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M94" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N94" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O94" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N95" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O95" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M92" s="2">
-        <v>1</v>
-      </c>
-      <c r="N92" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>3</v>
-      </c>
-      <c r="B93" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M93" s="2">
-        <v>1</v>
-      </c>
-      <c r="N93" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>3</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M94" s="2">
-        <v>1</v>
-      </c>
-      <c r="N94" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>3</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M95" s="2">
-        <v>1</v>
-      </c>
-      <c r="N95" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>3</v>
       </c>
       <c r="B96" s="2">
         <v>0.5</v>
@@ -5436,31 +5500,31 @@
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="M96" s="2">
         <v>1</v>
@@ -5483,31 +5547,31 @@
         <v>114</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="M97" s="2">
         <v>1</v>
@@ -5519,39 +5583,193 @@
         <v>117</v>
       </c>
     </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M98" s="2">
+        <v>1</v>
+      </c>
+      <c r="N98" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M99" s="2">
+        <v>1</v>
+      </c>
+      <c r="N99" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="A100" s="2">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="A101" s="2">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1</v>
+      </c>
+      <c r="N101" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>

--- a/ML/fEX_scorebook.xlsx
+++ b/ML/fEX_scorebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AE1987-6AAA-4BC7-BB99-4E130A3595F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C0A45-A86A-43C9-9146-644E7CC95BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{9AF6A8F2-4FBF-401F-9BE3-1FBCD732B3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="325">
   <si>
     <t>T1 Ratio</t>
   </si>
@@ -380,33 +380,18 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.636667</t>
-  </si>
-  <si>
     <t>0.608000</t>
   </si>
   <si>
     <t>3,4,5,6,7,8,9,10,11</t>
   </si>
   <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
     <t>0.510000</t>
   </si>
   <si>
-    <t>0.499000</t>
-  </si>
-  <si>
     <t>395</t>
   </si>
   <si>
@@ -416,78 +401,18 @@
     <t>100</t>
   </si>
   <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>0.635667</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
     <t>0.551333</t>
   </si>
   <si>
-    <t>0.557000</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>0.476667</t>
-  </si>
-  <si>
     <t>0.504000</t>
   </si>
   <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>0.468333</t>
-  </si>
-  <si>
-    <t>0.476000</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
     <t>147</t>
   </si>
   <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>0.587</t>
   </si>
   <si>
@@ -606,6 +531,483 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>0,5/0,5</t>
+  </si>
+  <si>
+    <t>0.693333</t>
+  </si>
+  <si>
+    <t>0.628000</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>0,5/0,1</t>
+  </si>
+  <si>
+    <t>0.585333</t>
+  </si>
+  <si>
+    <t>0.572000</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>0.684667</t>
+  </si>
+  <si>
+    <t>0.614000</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>0.566667</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>0.508667</t>
+  </si>
+  <si>
+    <t>0.474000</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.483333</t>
+  </si>
+  <si>
+    <t>0.436000</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0.669333</t>
+  </si>
+  <si>
+    <t>0.530000</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>0.536000</t>
+  </si>
+  <si>
+    <t>0.464000</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>0.736000</t>
+  </si>
+  <si>
+    <t>0.590000</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>0.266000</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>0.544667</t>
+  </si>
+  <si>
+    <t>0.206000</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.472667</t>
+  </si>
+  <si>
+    <t>0.802000</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>0.543333</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>0.506000</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>0.472000</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>0.542667</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>0.502000</t>
+  </si>
+  <si>
+    <t>0.500000</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>0.501333</t>
+  </si>
+  <si>
+    <t>0.516000</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>0.660000</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>0.582667</t>
+  </si>
+  <si>
+    <t>0.558000</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>0.659333</t>
+  </si>
+  <si>
+    <t>0.566000</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>0.554000</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>3,4,5,6,11</t>
+  </si>
+  <si>
+    <t>0.664000</t>
+  </si>
+  <si>
+    <t>0.624000</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>0.532667</t>
+  </si>
+  <si>
+    <t>0.518000</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>0.616000</t>
+  </si>
+  <si>
+    <t>0.582000</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>0.588000</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>0.574667</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>0.490000</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>0.554667</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0.564667</t>
+  </si>
+  <si>
+    <t>0.570000</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>0.570667</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>0.608667</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0.508000</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>0.576667</t>
+  </si>
+  <si>
+    <t>0.552000</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>197</t>
   </si>
 </sst>
 </file>
@@ -621,7 +1023,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,7 +1062,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -694,7 +1132,15 @@
     <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604434FA-C7CF-4F86-834A-76C76B5EC888}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="C101" zoomScale="73" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,10 +3805,10 @@
         <v>293</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="M50" s="14">
         <v>1</v>
@@ -3435,10 +3881,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G52" s="10">
         <v>285</v>
@@ -3453,10 +3899,10 @@
         <v>191</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="M52" s="10">
         <v>1</v>
@@ -3482,10 +3928,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G53" s="10">
         <v>296</v>
@@ -3500,10 +3946,10 @@
         <v>180</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="M53" s="10">
         <v>1</v>
@@ -3529,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F54" t="s">
         <v>111</v>
@@ -3576,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G55">
         <v>184</v>
@@ -3594,10 +4040,10 @@
         <v>292</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="M55" s="2">
         <v>1</v>
@@ -3623,7 +4069,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F56" t="s">
         <v>109</v>
@@ -3670,10 +4116,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G57">
         <v>226</v>
@@ -3688,10 +4134,10 @@
         <v>250</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="M57" s="2">
         <v>1</v>
@@ -3717,10 +4163,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G58" s="4">
         <v>289</v>
@@ -3735,10 +4181,10 @@
         <v>187</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="M58" s="5">
         <v>1</v>
@@ -3764,10 +4210,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G59">
         <v>212</v>
@@ -3782,10 +4228,10 @@
         <v>264</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
@@ -3811,10 +4257,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="G60">
         <v>310</v>
@@ -3829,10 +4275,10 @@
         <v>166</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3858,7 +4304,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
         <v>65</v>
@@ -3905,10 +4351,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" s="7">
         <v>298</v>
@@ -3923,10 +4369,10 @@
         <v>178</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -3952,10 +4398,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G63">
         <v>174</v>
@@ -3970,10 +4416,10 @@
         <v>302</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3999,10 +4445,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G64">
         <v>1107</v>
@@ -4017,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -4046,10 +4492,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G65">
         <v>1107</v>
@@ -4064,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -4093,10 +4539,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G66">
         <v>1107</v>
@@ -4111,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -4140,10 +4586,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G67">
         <v>1107</v>
@@ -4158,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4187,10 +4633,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G68">
         <v>1107</v>
@@ -4205,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M68" s="2">
         <v>1</v>
@@ -4234,10 +4680,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G69">
         <v>1107</v>
@@ -4252,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M69" s="2">
         <v>1</v>
@@ -4281,10 +4727,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G70">
         <v>1107</v>
@@ -4299,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M70" s="2">
         <v>1</v>
@@ -4328,10 +4774,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G71">
         <v>1107</v>
@@ -4346,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M71" s="2">
         <v>1</v>
@@ -4375,10 +4821,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G72" s="10">
         <v>1107</v>
@@ -4393,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M72" s="11">
         <v>1</v>
@@ -4422,10 +4868,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G73">
         <v>1107</v>
@@ -4440,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M73" s="2">
         <v>1</v>
@@ -4469,10 +4915,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G74">
         <v>1107</v>
@@ -4487,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4516,10 +4962,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G75">
         <v>1107</v>
@@ -4534,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4563,10 +5009,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G76" s="10">
         <v>1107</v>
@@ -4581,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M76" s="10">
         <v>1</v>
@@ -4610,10 +5056,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G77">
         <v>1107</v>
@@ -4628,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4657,10 +5103,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G78">
         <v>1107</v>
@@ -4675,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4704,10 +5150,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G79">
         <v>1107</v>
@@ -4722,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4751,10 +5197,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G80">
         <v>1107</v>
@@ -4769,10 +5215,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4798,10 +5244,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G81">
         <v>1107</v>
@@ -4816,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4845,10 +5291,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G82">
         <v>1107</v>
@@ -4863,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M82" s="2">
         <v>1</v>
@@ -4892,10 +5338,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G83">
         <v>1107</v>
@@ -4910,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M83" s="2">
         <v>1</v>
@@ -4939,10 +5385,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F84" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G84">
         <v>1107</v>
@@ -4957,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M84" s="2">
         <v>1</v>
@@ -4986,10 +5432,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F85" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G85">
         <v>1107</v>
@@ -5004,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M85" s="2">
         <v>1</v>
@@ -5033,10 +5479,10 @@
         <v>10</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G86" s="10">
         <v>1107</v>
@@ -5051,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M86" s="11">
         <v>1</v>
@@ -5080,10 +5526,10 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G87">
         <v>1107</v>
@@ -5098,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M87" s="2">
         <v>1</v>
@@ -5127,10 +5573,10 @@
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G88">
         <v>1107</v>
@@ -5145,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5174,10 +5620,10 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G89">
         <v>1107</v>
@@ -5192,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5221,10 +5667,10 @@
         <v>10</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G90" s="10">
         <v>1107</v>
@@ -5239,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M90" s="10">
         <v>1</v>
@@ -5268,10 +5714,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G91">
         <v>1107</v>
@@ -5286,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5303,40 +5749,40 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>114</v>
@@ -5350,10 +5796,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>114</v>
@@ -5362,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>114</v>
@@ -5397,40 +5843,40 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M94" s="16" t="s">
         <v>114</v>
@@ -5444,10 +5890,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>114</v>
@@ -5456,28 +5902,28 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="M95" s="16" t="s">
         <v>114</v>
@@ -5490,354 +5936,1696 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L96" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M96" s="19">
+        <v>1</v>
+      </c>
+      <c r="N96" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O96" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="17">
+        <v>3</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B96" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="G97" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M97" s="17">
+        <v>1</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O97" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="19">
+        <v>3</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="D98" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J98" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M98" s="19">
+        <v>1</v>
+      </c>
+      <c r="N98" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O98" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="17">
+        <v>3</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K99" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M99" s="17">
+        <v>1</v>
+      </c>
+      <c r="N99" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O99" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="17">
+        <v>3</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="M100" s="17">
+        <v>1</v>
+      </c>
+      <c r="N100" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O100" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="17">
+        <v>3</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M101" s="17">
+        <v>1</v>
+      </c>
+      <c r="N101" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O101" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="K102" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L102" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="M102" s="18">
+        <v>1</v>
+      </c>
+      <c r="N102" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O102" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="18">
+        <v>3</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J103" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L103" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="M103" s="18">
+        <v>1</v>
+      </c>
+      <c r="N103" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O103" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="20">
+        <v>3</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="J104" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L104" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M104" s="20">
+        <v>1</v>
+      </c>
+      <c r="N104" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O104" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="18">
+        <v>3</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="J105" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="M105" s="18">
+        <v>1</v>
+      </c>
+      <c r="N105" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O105" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>3</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M106" s="18">
+        <v>1</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O106" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="20">
+        <v>3</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="J107" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="K107" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="L107" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="M107" s="20">
+        <v>1</v>
+      </c>
+      <c r="N107" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O107" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I108" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J108" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K108" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L108" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M108" s="21">
+        <v>1</v>
+      </c>
+      <c r="N108" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O108" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="21">
+        <v>3</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H109" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="I109" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="J109" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K109" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="L109" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="M109" s="21">
+        <v>1</v>
+      </c>
+      <c r="N109" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O109" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <v>3</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="I110" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="J110" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="K110" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L110" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M110" s="21">
+        <v>1</v>
+      </c>
+      <c r="N110" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O110" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="21">
+        <v>3</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I111" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="J111" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="K111" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L111" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M111" s="21">
+        <v>1</v>
+      </c>
+      <c r="N111" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O111" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="21">
+        <v>3</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I112" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="J112" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="L112" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M112" s="21">
+        <v>1</v>
+      </c>
+      <c r="N112" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O112" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="21">
+        <v>3</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H113" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="I113" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J113" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="L113" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M113" s="21">
+        <v>1</v>
+      </c>
+      <c r="N113" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O113" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I96" s="2" t="s">
+      <c r="G114" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="J114" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K114" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L114" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M114" s="22">
+        <v>1</v>
+      </c>
+      <c r="N114" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O114" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="22">
+        <v>3</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="J115" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="M115" s="22">
+        <v>1</v>
+      </c>
+      <c r="N115" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O115" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="22">
+        <v>3</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J116" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K116" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="L116" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="M116" s="22">
+        <v>1</v>
+      </c>
+      <c r="N116" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O116" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="22">
+        <v>3</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="J117" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L117" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M117" s="22">
+        <v>1</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O117" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="22">
+        <v>3</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I118" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J118" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="K118" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L118" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="M118" s="22">
+        <v>1</v>
+      </c>
+      <c r="N118" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O118" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="22">
+        <v>3</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J119" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L119" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M119" s="22">
+        <v>1</v>
+      </c>
+      <c r="N119" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O119" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J120" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K120" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="L120" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="M120" s="23">
+        <v>1</v>
+      </c>
+      <c r="N120" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O120" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="23">
+        <v>3</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I121" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="J121" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K121" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="L121" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="M121" s="23">
+        <v>1</v>
+      </c>
+      <c r="N121" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O121" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="23">
+        <v>3</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="I122" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="J122" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="K122" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="L122" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="M122" s="23">
+        <v>1</v>
+      </c>
+      <c r="N122" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O122" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="23">
+        <v>3</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="J123" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K123" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="L123" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="M123" s="23">
+        <v>1</v>
+      </c>
+      <c r="N123" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O123" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124" s="23">
+        <v>3</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G124" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M96" s="2">
-        <v>1</v>
-      </c>
-      <c r="N96" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O96" s="2" t="s">
+      <c r="H124" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="J124" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K124" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L124" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M124" s="23">
+        <v>1</v>
+      </c>
+      <c r="N124" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O124" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="23">
+        <v>3</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K125" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L125" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="M125" s="23">
+        <v>1</v>
+      </c>
+      <c r="N125" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O125" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="J126" s="24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="K126" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="L126" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="M126" s="24">
+        <v>1</v>
+      </c>
+      <c r="N126" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O126" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="24">
         <v>3</v>
       </c>
-      <c r="B97" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B127" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D127" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M97" s="2">
-        <v>1</v>
-      </c>
-      <c r="N97" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="E127" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="J127" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="K127" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="L127" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="M127" s="24">
+        <v>1</v>
+      </c>
+      <c r="N127" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O127" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128" s="24">
         <v>3</v>
       </c>
-      <c r="B98" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="B128" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D128" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="2">
-        <v>1</v>
-      </c>
-      <c r="N98" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="E128" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="J128" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="K128" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L128" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M128" s="24">
+        <v>1</v>
+      </c>
+      <c r="N128" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O128" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" s="24">
         <v>3</v>
       </c>
-      <c r="B99" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M99" s="2">
-        <v>1</v>
-      </c>
-      <c r="N99" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="B129" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J129" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="K129" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L129" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M129" s="24">
+        <v>1</v>
+      </c>
+      <c r="N129" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O129" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" s="24">
         <v>3</v>
       </c>
-      <c r="B100" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="B130" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M100" s="2">
-        <v>1</v>
-      </c>
-      <c r="N100" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="E130" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J130" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="K130" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L130" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M130" s="24">
+        <v>1</v>
+      </c>
+      <c r="N130" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O130" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" s="24">
         <v>3</v>
       </c>
-      <c r="B101" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="B131" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M101" s="2">
-        <v>1</v>
-      </c>
-      <c r="N101" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="E131" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="J131" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="L131" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="M131" s="24">
+        <v>1</v>
+      </c>
+      <c r="N131" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O131" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
